--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Test case ID</t>
   </si>
@@ -42,7 +42,28 @@
     <t>Hin@1994</t>
   </si>
   <si>
-    <t>TC02</t>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Dresses</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>women</t>
+  </si>
+  <si>
+    <t>casual dresses</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
@@ -392,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,9 +425,10 @@
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,8 +441,23 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -433,27 +470,26 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="D3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
